--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,49 +40,64 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
@@ -94,64 +109,64 @@
     <t>uncertainty</t>
   </si>
   <si>
-    <t>lowest</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>w</t>
   </si>
   <si>
     <t>oil</t>
@@ -160,16 +175,22 @@
     <t>buying</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
+    <t>people</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>corona</t>
@@ -181,154 +202,181 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>like</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>today</t>
+    <t>need</t>
   </si>
   <si>
     <t>buy</t>
@@ -337,13 +385,13 @@
     <t>amp</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -701,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -788,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -812,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -820,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,31 +886,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L4">
+        <v>53</v>
+      </c>
+      <c r="M4">
+        <v>53</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="L4">
-        <v>112</v>
-      </c>
-      <c r="M4">
-        <v>112</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.84</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.815068493150685</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -962,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -970,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8108108108108109</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1020,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.856396866840731</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1062,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1070,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8381201044386423</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>321</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1112,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1120,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.76</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1138,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.8207547169811321</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1212,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1238,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1262,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1288,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>30</v>
@@ -1320,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1391,16 +1439,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.7906976744186046</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L15">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6410256410256411</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1438,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.7872340425531915</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1462,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6101694915254238</v>
+        <v>0.65</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1488,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.7816901408450704</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1520,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5882352941176471</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1538,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1570,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5717054263565892</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C19">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.7708333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1620,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5652173913043478</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1662,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,37 +1718,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5652173913043478</v>
+        <v>0.59375</v>
       </c>
       <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>13</v>
       </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1720,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5636363636363636</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1762,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.55</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1788,31 +1836,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L23">
+        <v>45</v>
+      </c>
+      <c r="M23">
+        <v>45</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>18</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23">
-        <v>0.65</v>
-      </c>
-      <c r="L23">
-        <v>221</v>
-      </c>
-      <c r="M23">
-        <v>221</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1820,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.544973544973545</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="C24">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="D24">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>0.6285714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5185185185185185</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1888,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>0.62</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5135135135135135</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1938,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K26">
-        <v>0.6170212765957447</v>
+        <v>0.6794117647058824</v>
       </c>
       <c r="L26">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="M26">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1962,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1970,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5128205128205128</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2012,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4838709677419355</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K28">
-        <v>0.6101694915254238</v>
+        <v>0.66</v>
       </c>
       <c r="L28">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2062,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2118,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4765100671140939</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C29">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>0.606694560669456</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2112,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,49 +2168,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4666666666666667</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L30">
         <v>14</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>14</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>16</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30">
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="L30">
-        <v>22</v>
-      </c>
-      <c r="M30">
-        <v>23</v>
-      </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4545454545454545</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2212,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2268,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4464285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2262,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2270,13 +2318,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2288,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K33">
-        <v>0.5357142857142857</v>
+        <v>0.6169491525423729</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2312,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2320,13 +2368,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4266666666666667</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2338,31 +2386,31 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>28</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="L34">
         <v>43</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L34">
+      <c r="M34">
+        <v>43</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>27</v>
-      </c>
-      <c r="M34">
-        <v>27</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2370,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4193548387096774</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2388,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>0.5168539325842697</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L35">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="M35">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2412,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2420,13 +2468,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4111111111111111</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2438,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K36">
-        <v>0.5111111111111111</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2462,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2470,13 +2518,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C37">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2488,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>0.4814814814814815</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2512,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2520,13 +2568,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.275</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2538,19 +2586,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K38">
-        <v>0.4242424242424243</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2562,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2570,13 +2618,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2064343163538874</v>
+        <v>0.3293650793650794</v>
       </c>
       <c r="C39">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D39">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2588,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>0.4047619047619048</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2612,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2620,13 +2668,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1948051948051948</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2638,19 +2686,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2662,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2670,13 +2718,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.14</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C41">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2688,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K41">
-        <v>0.3287671232876712</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2712,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2720,13 +2768,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.08873720136518772</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2738,19 +2786,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K42">
-        <v>0.3050847457627119</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2762,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2770,37 +2818,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03370786516853932</v>
+        <v>0.2446236559139785</v>
       </c>
       <c r="C43">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D43">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E43">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="F43">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1118</v>
+        <v>281</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K43">
-        <v>0.2982456140350877</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2812,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2820,37 +2868,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03111831442463533</v>
+        <v>0.225</v>
       </c>
       <c r="C44">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="E44">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>2989</v>
+        <v>62</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K44">
-        <v>0.28125</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2862,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2870,37 +2918,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.02496467263306642</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C45">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E45">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2070</v>
+        <v>46</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K45">
-        <v>0.2459016393442623</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2912,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2920,37 +2968,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02433371958285052</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E46">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>842</v>
+        <v>259</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K46">
-        <v>0.2222222222222222</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2962,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2970,413 +3018,841 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.008002560819462228</v>
+        <v>0.07849829351535836</v>
       </c>
       <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>270</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>25</v>
       </c>
-      <c r="D47">
-        <v>102</v>
-      </c>
-      <c r="E47">
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.04111362900615086</v>
+      </c>
+      <c r="C48">
+        <v>127</v>
+      </c>
+      <c r="D48">
+        <v>145</v>
+      </c>
+      <c r="E48">
+        <v>0.12</v>
+      </c>
+      <c r="F48">
+        <v>0.88</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2962</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L48">
+        <v>32</v>
+      </c>
+      <c r="M48">
+        <v>32</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.03889369057908384</v>
+      </c>
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>0.08</v>
+      </c>
+      <c r="F49">
+        <v>0.92</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1112</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49">
+        <v>25</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.03538175046554935</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>0.3</v>
+      </c>
+      <c r="F50">
+        <v>0.7</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>518</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50">
+        <v>0.4035087719298245</v>
+      </c>
+      <c r="L50">
+        <v>23</v>
+      </c>
+      <c r="M50">
+        <v>23</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.0304093567251462</v>
+      </c>
+      <c r="C51">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>38</v>
+      </c>
+      <c r="E51">
+        <v>0.32</v>
+      </c>
+      <c r="F51">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>829</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L51">
+        <v>28</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.02877358490566038</v>
+      </c>
+      <c r="C52">
+        <v>61</v>
+      </c>
+      <c r="D52">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>0.27</v>
+      </c>
+      <c r="F52">
+        <v>0.73</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2059</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.02384737678855326</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>36</v>
+      </c>
+      <c r="E53">
+        <v>0.58</v>
+      </c>
+      <c r="F53">
+        <v>0.42</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>614</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53">
+        <v>0.3125</v>
+      </c>
+      <c r="L53">
+        <v>20</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.009315772566655958</v>
+      </c>
+      <c r="C54">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>117</v>
+      </c>
+      <c r="E54">
         <v>0.75</v>
       </c>
-      <c r="F47">
+      <c r="F54">
         <v>0.25</v>
       </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>3099</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K47">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="L47">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3084</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K54">
+        <v>0.25</v>
+      </c>
+      <c r="L54">
+        <v>18</v>
+      </c>
+      <c r="M54">
+        <v>18</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55">
+        <v>0.2028985507246377</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
         <v>15</v>
       </c>
-      <c r="M47">
+      <c r="N55">
+        <v>0.93</v>
+      </c>
+      <c r="O55">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>24</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="L57">
         <v>16</v>
       </c>
-      <c r="N47">
+      <c r="M57">
+        <v>17</v>
+      </c>
+      <c r="N57">
         <v>0.9399999999999999</v>
       </c>
-      <c r="O47">
+      <c r="O57">
         <v>0.06000000000000005</v>
       </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K48">
-        <v>0.1290322580645161</v>
-      </c>
-      <c r="L48">
-        <v>16</v>
-      </c>
-      <c r="M48">
-        <v>16</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K49">
-        <v>0.1243243243243243</v>
-      </c>
-      <c r="L49">
-        <v>23</v>
-      </c>
-      <c r="M49">
-        <v>23</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K50">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="L50">
-        <v>14</v>
-      </c>
-      <c r="M50">
-        <v>15</v>
-      </c>
-      <c r="N50">
-        <v>0.93</v>
-      </c>
-      <c r="O50">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K51">
-        <v>0.1048951048951049</v>
-      </c>
-      <c r="L51">
-        <v>15</v>
-      </c>
-      <c r="M51">
-        <v>15</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K52">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="L52">
-        <v>28</v>
-      </c>
-      <c r="M52">
-        <v>28</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K53">
-        <v>0.08904109589041095</v>
-      </c>
-      <c r="L53">
-        <v>13</v>
-      </c>
-      <c r="M53">
-        <v>14</v>
-      </c>
-      <c r="N53">
-        <v>0.93</v>
-      </c>
-      <c r="O53">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K54">
-        <v>0.08187134502923976</v>
-      </c>
-      <c r="L54">
-        <v>14</v>
-      </c>
-      <c r="M54">
-        <v>15</v>
-      </c>
-      <c r="N54">
-        <v>0.93</v>
-      </c>
-      <c r="O54">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K55">
-        <v>0.08045977011494253</v>
-      </c>
-      <c r="L55">
-        <v>28</v>
-      </c>
-      <c r="M55">
-        <v>29</v>
-      </c>
-      <c r="N55">
-        <v>0.97</v>
-      </c>
-      <c r="O55">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K56">
-        <v>0.07004830917874397</v>
-      </c>
-      <c r="L56">
-        <v>29</v>
-      </c>
-      <c r="M56">
-        <v>31</v>
-      </c>
-      <c r="N56">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O56">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K57">
-        <v>0.06574394463667819</v>
-      </c>
-      <c r="L57">
-        <v>19</v>
-      </c>
-      <c r="M57">
-        <v>19</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="K58">
-        <v>0.02777777777777778</v>
+        <v>0.1373626373626374</v>
       </c>
       <c r="L58">
         <v>25</v>
       </c>
       <c r="M58">
+        <v>28</v>
+      </c>
+      <c r="N58">
+        <v>0.89</v>
+      </c>
+      <c r="O58">
+        <v>0.11</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K59">
+        <v>0.09316770186335403</v>
+      </c>
+      <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>17</v>
+      </c>
+      <c r="N59">
+        <v>0.88</v>
+      </c>
+      <c r="O59">
+        <v>0.12</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60">
+        <v>0.09134615384615384</v>
+      </c>
+      <c r="L60">
+        <v>38</v>
+      </c>
+      <c r="M60">
+        <v>38</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K61">
+        <v>0.08794788273615635</v>
+      </c>
+      <c r="L61">
+        <v>27</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>0.96</v>
+      </c>
+      <c r="O61">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K62">
+        <v>0.08650519031141868</v>
+      </c>
+      <c r="L62">
+        <v>25</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K63">
+        <v>0.0755813953488372</v>
+      </c>
+      <c r="L63">
+        <v>13</v>
+      </c>
+      <c r="M63">
+        <v>13</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64">
+        <v>0.06876790830945559</v>
+      </c>
+      <c r="L64">
+        <v>24</v>
+      </c>
+      <c r="M64">
+        <v>24</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65">
+        <v>0.03307086614173228</v>
+      </c>
+      <c r="L65">
+        <v>21</v>
+      </c>
+      <c r="M65">
+        <v>36</v>
+      </c>
+      <c r="N65">
+        <v>0.58</v>
+      </c>
+      <c r="O65">
+        <v>0.42</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66">
+        <v>0.02774274905422447</v>
+      </c>
+      <c r="L66">
+        <v>88</v>
+      </c>
+      <c r="M66">
+        <v>117</v>
+      </c>
+      <c r="N66">
+        <v>0.75</v>
+      </c>
+      <c r="O66">
+        <v>0.25</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K67">
+        <v>0.02338530066815145</v>
+      </c>
+      <c r="L67">
+        <v>21</v>
+      </c>
+      <c r="M67">
+        <v>24</v>
+      </c>
+      <c r="N67">
+        <v>0.88</v>
+      </c>
+      <c r="O67">
+        <v>0.12</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K68">
+        <v>0.01791713325867861</v>
+      </c>
+      <c r="L68">
+        <v>16</v>
+      </c>
+      <c r="M68">
+        <v>17</v>
+      </c>
+      <c r="N68">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O68">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K69">
+        <v>0.01772679874869656</v>
+      </c>
+      <c r="L69">
+        <v>17</v>
+      </c>
+      <c r="M69">
         <v>26</v>
       </c>
-      <c r="N58">
-        <v>0.96</v>
-      </c>
-      <c r="O58">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59">
-        <v>0.02424433249370277</v>
-      </c>
-      <c r="L59">
-        <v>77</v>
-      </c>
-      <c r="M59">
-        <v>102</v>
-      </c>
-      <c r="N59">
-        <v>0.75</v>
-      </c>
-      <c r="O59">
-        <v>0.25</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K60">
-        <v>0.009569377990430622</v>
-      </c>
-      <c r="L60">
-        <v>20</v>
-      </c>
-      <c r="M60">
-        <v>73</v>
-      </c>
-      <c r="N60">
+      <c r="N69">
+        <v>0.65</v>
+      </c>
+      <c r="O69">
+        <v>0.35</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70">
+        <v>0.01104707012487992</v>
+      </c>
+      <c r="L70">
+        <v>23</v>
+      </c>
+      <c r="M70">
+        <v>84</v>
+      </c>
+      <c r="N70">
         <v>0.27</v>
       </c>
-      <c r="O60">
+      <c r="O70">
         <v>0.73</v>
       </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K61">
-        <v>0.007306542676851545</v>
-      </c>
-      <c r="L61">
-        <v>22</v>
-      </c>
-      <c r="M61">
-        <v>118</v>
-      </c>
-      <c r="N61">
-        <v>0.19</v>
-      </c>
-      <c r="O61">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>2989</v>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K71">
+        <v>0.006040268456375839</v>
+      </c>
+      <c r="L71">
+        <v>18</v>
+      </c>
+      <c r="M71">
+        <v>145</v>
+      </c>
+      <c r="N71">
+        <v>0.12</v>
+      </c>
+      <c r="O71">
+        <v>0.88</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2962</v>
       </c>
     </row>
   </sheetData>
